--- a/templates/recursos.xlsx
+++ b/templates/recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBCD8E-34A9-41DE-817E-73656A6D33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AD854-2253-4159-A248-4D62EC02EEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>Code</t>
   </si>
@@ -240,9 +240,6 @@
     <t>Final_cleaning</t>
   </si>
   <si>
-    <t>XXX</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
   </si>
   <si>
     <t>Multiplier</t>
-  </si>
-  <si>
-    <t>T10</t>
   </si>
   <si>
     <t>LONG</t>
@@ -865,13 +859,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>6</v>
@@ -988,10 +982,7 @@
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13">
-        <f>_xlfn.XLOOKUP(D3&amp;E3,Precios!O:O,Precios!F:F,0)</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
     </row>
@@ -1106,48 +1097,22 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
-        <v>0</v>
-      </c>
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1176,10 +1141,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,22 +1152,18 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1211,6 +1172,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -1407,27 +1388,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1444,23 +1424,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/recursos.xlsx
+++ b/templates/recursos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AD854-2253-4159-A248-4D62EC02EEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E22C1B-D0B7-4076-8519-661B01E64A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,6 +303,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -364,11 +365,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color rgb="FFC6C6C6"/>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
-      <right style="hair">
-        <color rgb="FFC6C6C6"/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top/>
       <bottom/>
@@ -391,9 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
@@ -403,10 +401,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -979,12 +980,32 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:X3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1020,14 +1041,14 @@
       <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="7"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1097,7 +1118,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="10"/>
@@ -1137,13 +1158,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1159,11 +1180,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1172,26 +1193,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -1388,26 +1389,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1424,4 +1426,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>